--- a/docs/templates/ccrcn_impacts_template.xlsx
+++ b/docs/templates/ccrcn_impacts_template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">column_name</t>
   </si>
@@ -21,16 +21,16 @@
     <t xml:space="preserve">definition</t>
   </si>
   <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
     <t xml:space="preserve">field_type</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">text_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values</t>
+    <t xml:space="preserve">variable_codes</t>
   </si>
   <si>
     <t xml:space="preserve">study_id</t>
@@ -39,6 +39,9 @@
     <t xml:space="preserve">Unique identifier for the study made up of the first author's family name, as well as the second author's family name or et al. if more than three, then publication year separated by underscores.</t>
   </si>
   <si>
+    <t xml:space="preserve">optional</t>
+  </si>
+  <si>
     <t xml:space="preserve">character</t>
   </si>
   <si>
@@ -64,15 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">tidally restricted = Tidal flow is muted or blocked by built structures; impounded = Water level is raised artificially by a tidal restriction, resulting in ponding of water on the wetland and or upland surface; salt impacted = TBD.; natural = No disturbance or management has occurred.; managed impounded = Wetland is impounded seasonally, and other times natural or semi natural hydrology occurs; ditched = Tidal hydrology is altered because artificial ditches have been cut to promote tidal flooding and drainage; diked and drained = The wetland has been diked and drained, with or without flapper gates, pumping, or other means; farmed = Managed impoundment or drainage in which wetland has been converted to agricultural land; tidally restored = Tidal flow has been restored by removing an artificial obstruction; revegetated = Wetland vegetation has been reintroduced by replanting on unvegetated surfaces; restored = Some method of restoration (potentially unspecified) has occurred; invasive plants removed = Natural plant communities have been restored by the active removal of invasive plant species; invasive herbivores removed = Tidal wetland vegetation has been managed by the removal of invasive herbivores; sediment added = Elevation has been managed by artificially adding sediment to the site using techniques such as thin layering or sediment diversion; wetlands built = Constructed wetland using sediments such as dredge spoils or other sediment source.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format, units, or variable codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tidally restricted; impounded; salt impacted; natural; managed impounded; ditched; diked and drained; farmed; tidally restored; revegetated; restored; invasive plants removed; invasive herbivores removed; sediment added; wetlands built</t>
   </si>
 </sst>
 </file>
@@ -464,52 +458,60 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -549,39 +551,25 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
